--- a/Чек-лист для СПВ 7024М (каскад 5.4.6).xlsx
+++ b/Чек-лист для СПВ 7024М (каскад 5.4.6).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\СПВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312F53A-A32E-4033-BA1F-386A40A414F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8021E-AFBA-44AA-90A7-B8675230C41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{44722796-5088-4ED3-9520-09EC5E1A3E68}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
